--- a/Moduli partecipanti & proposta/Informazioni progetto.xlsx
+++ b/Moduli partecipanti & proposta/Informazioni progetto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Desktop\Quattrocchi.it\Moduli partecipanti &amp; proposta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progetto" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>https://github.com/DrRek/Quattrocchi.it.git</t>
   </si>
   <si>
-    <t>Sito E-commerce per la vendità di occhiali</t>
-  </si>
-  <si>
     <t>Alberto</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>0512103556</t>
+  </si>
+  <si>
+    <t>Sito E-commerce per la vendita di occhiali</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -671,13 +671,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
